--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.3936496666666</v>
+        <v>107.35229</v>
       </c>
       <c r="H2">
-        <v>334.1809489999999</v>
+        <v>322.05687</v>
       </c>
       <c r="I2">
-        <v>0.728503147516836</v>
+        <v>0.6580077109993711</v>
       </c>
       <c r="J2">
-        <v>0.728503147516836</v>
+        <v>0.6580077109993709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.20338166666667</v>
+        <v>2.641449666666666</v>
       </c>
       <c r="N2">
-        <v>30.610145</v>
+        <v>7.924348999999999</v>
       </c>
       <c r="O2">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084781</v>
       </c>
       <c r="P2">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084782</v>
       </c>
       <c r="Q2">
-        <v>1136.591922791956</v>
+        <v>283.5656706364033</v>
       </c>
       <c r="R2">
-        <v>10229.3273051276</v>
+        <v>2552.09103572763</v>
       </c>
       <c r="S2">
-        <v>0.7192188770149303</v>
+        <v>0.5280300762999711</v>
       </c>
       <c r="T2">
-        <v>0.7192188770149303</v>
+        <v>0.5280300762999711</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.3936496666666</v>
+        <v>107.35229</v>
       </c>
       <c r="H3">
-        <v>334.1809489999999</v>
+        <v>322.05687</v>
       </c>
       <c r="I3">
-        <v>0.728503147516836</v>
+        <v>0.6580077109993711</v>
       </c>
       <c r="J3">
-        <v>0.728503147516836</v>
+        <v>0.6580077109993709</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1317136666666667</v>
+        <v>0.650208</v>
       </c>
       <c r="N3">
-        <v>0.395141</v>
+        <v>1.950624</v>
       </c>
       <c r="O3">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="P3">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="Q3">
-        <v>14.67206604097878</v>
+        <v>69.80131777632</v>
       </c>
       <c r="R3">
-        <v>132.048594368809</v>
+        <v>628.2118599868801</v>
       </c>
       <c r="S3">
-        <v>0.00928427050190571</v>
+        <v>0.1299776346993999</v>
       </c>
       <c r="T3">
-        <v>0.00928427050190571</v>
+        <v>0.1299776346993999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>53.693374</v>
       </c>
       <c r="I4">
-        <v>0.1170497363085729</v>
+        <v>0.1097031531157002</v>
       </c>
       <c r="J4">
-        <v>0.1170497363085729</v>
+        <v>0.1097031531157002</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.20338166666667</v>
+        <v>2.641449666666666</v>
       </c>
       <c r="N4">
-        <v>30.610145</v>
+        <v>7.924348999999999</v>
       </c>
       <c r="O4">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084781</v>
       </c>
       <c r="P4">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084782</v>
       </c>
       <c r="Q4">
-        <v>182.6179959643589</v>
+        <v>47.27611495150289</v>
       </c>
       <c r="R4">
-        <v>1643.56196367923</v>
+        <v>425.485034563526</v>
       </c>
       <c r="S4">
-        <v>0.1155580180946301</v>
+        <v>0.08803326061643364</v>
       </c>
       <c r="T4">
-        <v>0.1155580180946301</v>
+        <v>0.08803326061643363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>53.693374</v>
       </c>
       <c r="I5">
-        <v>0.1170497363085729</v>
+        <v>0.1097031531157002</v>
       </c>
       <c r="J5">
-        <v>0.1170497363085729</v>
+        <v>0.1097031531157002</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1317136666666667</v>
+        <v>0.650208</v>
       </c>
       <c r="N5">
-        <v>0.395141</v>
+        <v>1.950624</v>
       </c>
       <c r="O5">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="P5">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="Q5">
-        <v>2.357383721748223</v>
+        <v>11.637287107264</v>
       </c>
       <c r="R5">
-        <v>21.216453495734</v>
+        <v>104.735583965376</v>
       </c>
       <c r="S5">
-        <v>0.001491718213942804</v>
+        <v>0.02166989249926654</v>
       </c>
       <c r="T5">
-        <v>0.001491718213942803</v>
+        <v>0.02166989249926653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.616134</v>
+        <v>37.89738366666666</v>
       </c>
       <c r="H6">
-        <v>70.84840199999999</v>
+        <v>113.692151</v>
       </c>
       <c r="I6">
-        <v>0.1544471161745911</v>
+        <v>0.2322891358849288</v>
       </c>
       <c r="J6">
-        <v>0.1544471161745911</v>
+        <v>0.2322891358849288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.20338166666667</v>
+        <v>2.641449666666666</v>
       </c>
       <c r="N6">
-        <v>30.610145</v>
+        <v>7.924348999999999</v>
       </c>
       <c r="O6">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084781</v>
       </c>
       <c r="P6">
-        <v>0.9872556892395703</v>
+        <v>0.8024679156084782</v>
       </c>
       <c r="Q6">
-        <v>240.9644286931433</v>
+        <v>100.1040314538554</v>
       </c>
       <c r="R6">
-        <v>2168.67985823829</v>
+        <v>900.9362830846989</v>
       </c>
       <c r="S6">
-        <v>0.1524787941300099</v>
+        <v>0.1864045786920734</v>
       </c>
       <c r="T6">
-        <v>0.1524787941300099</v>
+        <v>0.1864045786920734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.616134</v>
+        <v>37.89738366666666</v>
       </c>
       <c r="H7">
-        <v>70.84840199999999</v>
+        <v>113.692151</v>
       </c>
       <c r="I7">
-        <v>0.1544471161745911</v>
+        <v>0.2322891358849288</v>
       </c>
       <c r="J7">
-        <v>0.1544471161745911</v>
+        <v>0.2322891358849288</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1317136666666667</v>
+        <v>0.650208</v>
       </c>
       <c r="N7">
-        <v>0.395141</v>
+        <v>1.950624</v>
       </c>
       <c r="O7">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="P7">
-        <v>0.01274431076042969</v>
+        <v>0.1975320843915219</v>
       </c>
       <c r="Q7">
-        <v>3.110567601631333</v>
+        <v>24.641182039136</v>
       </c>
       <c r="R7">
-        <v>27.995108414682</v>
+        <v>221.770638352224</v>
       </c>
       <c r="S7">
-        <v>0.001968322044581176</v>
+        <v>0.04588455719285545</v>
       </c>
       <c r="T7">
-        <v>0.001968322044581176</v>
+        <v>0.04588455719285545</v>
       </c>
     </row>
   </sheetData>
